--- a/training/output/Resnet34_ViT/W/W0_W2.xlsx
+++ b/training/output/Resnet34_ViT/W/W0_W2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4184877622377623</v>
+        <v>0.4820833333333333</v>
       </c>
       <c r="B2" t="n">
-        <v>3.319795175032182</v>
+        <v>2.637989521026611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7174388111888113</v>
+        <v>0.8614583333333334</v>
       </c>
       <c r="B3" t="n">
-        <v>2.573111339048906</v>
+        <v>2.01776048541069</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7792832167832168</v>
+        <v>0.9016666666666666</v>
       </c>
       <c r="B4" t="n">
-        <v>2.271311391483654</v>
+        <v>1.725342452526093</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8310751748251749</v>
+        <v>0.9172916666666666</v>
       </c>
       <c r="B5" t="n">
-        <v>2.016962268135764</v>
+        <v>1.581145316362381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8566433566433567</v>
+        <v>0.9039583333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>1.889963085001165</v>
+        <v>1.411502301692963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9189583333333334</v>
       </c>
       <c r="B7" t="n">
-        <v>1.828016785058108</v>
+        <v>1.346395403146744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8815559440559441</v>
+        <v>0.9289583333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>1.768674449487166</v>
+        <v>1.26999768614769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.865166083916084</v>
+        <v>0.946875</v>
       </c>
       <c r="B9" t="n">
-        <v>1.724902461875569</v>
+        <v>1.19487664103508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8935751748251749</v>
+        <v>0.9316666666666665</v>
       </c>
       <c r="B10" t="n">
-        <v>1.656306629831141</v>
+        <v>1.190363764762878</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.865166083916084</v>
+        <v>0.9414583333333334</v>
       </c>
       <c r="B11" t="n">
-        <v>1.593194045803764</v>
+        <v>1.095811456441879</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8594842657342657</v>
+        <v>0.9616666666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>1.598448000170968</v>
+        <v>1.057562381029129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8538024475524476</v>
+        <v>0.9570833333333334</v>
       </c>
       <c r="B13" t="n">
-        <v>1.579365611076355</v>
+        <v>1.101627916097641</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9672916666666665</v>
       </c>
       <c r="B14" t="n">
-        <v>1.581069344824011</v>
+        <v>1.057953462004662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.9589583333333334</v>
       </c>
       <c r="B15" t="n">
-        <v>1.548162492838773</v>
+        <v>1.012877523899078</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>1.552982178601352</v>
+        <v>0.984945610165596</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B17" t="n">
-        <v>1.517967668446627</v>
+        <v>0.9566217064857483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9106206293706294</v>
+        <v>0.9641666666666666</v>
       </c>
       <c r="B18" t="n">
-        <v>1.534441411495209</v>
+        <v>0.9363218545913696</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.9641666666666666</v>
       </c>
       <c r="B19" t="n">
-        <v>1.475282685323195</v>
+        <v>0.9373092204332352</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B20" t="n">
-        <v>1.49153365872123</v>
+        <v>0.9316753447055817</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9106206293706294</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B21" t="n">
-        <v>1.462789475917816</v>
+        <v>0.9365175664424896</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.8935751748251749</v>
+        <v>0.941875</v>
       </c>
       <c r="B22" t="n">
-        <v>1.458681122823195</v>
+        <v>0.9178694933652878</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.896416083916084</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B23" t="n">
-        <v>1.461023216897791</v>
+        <v>0.9191215634346008</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9049388111888113</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B24" t="n">
-        <v>1.455985849553888</v>
+        <v>0.9105339199304581</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9055944055944056</v>
+        <v>0.949375</v>
       </c>
       <c r="B25" t="n">
-        <v>1.444252783601934</v>
+        <v>0.8942224979400635</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9055944055944056</v>
+        <v>0.9668749999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>1.448145075277849</v>
+        <v>0.8865050375461578</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8935751748251749</v>
+        <v>0.979375</v>
       </c>
       <c r="B27" t="n">
-        <v>1.45098474892703</v>
+        <v>0.8900894373655319</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8907342657342657</v>
+        <v>0.9697916666666666</v>
       </c>
       <c r="B28" t="n">
-        <v>1.440145622600209</v>
+        <v>0.8607806861400604</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.896416083916084</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B29" t="n">
-        <v>1.455791722644459</v>
+        <v>0.8504756242036819</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>1.457562934268605</v>
+        <v>0.853013888001442</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B31" t="n">
-        <v>1.435825369574807</v>
+        <v>0.8682843297719955</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.896416083916084</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B32" t="n">
-        <v>1.435114567930048</v>
+        <v>0.8508887141942978</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8907342657342657</v>
+        <v>0.9768749999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1.435958304188468</v>
+        <v>0.8369733840227127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8935751748251749</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B34" t="n">
-        <v>1.447942170229825</v>
+        <v>0.8424923121929169</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B35" t="n">
-        <v>1.435040766542608</v>
+        <v>0.8190957009792328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8942307692307693</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B36" t="n">
-        <v>1.424317825924266</v>
+        <v>0.8261354863643646</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.9818750000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1.424830778078599</v>
+        <v>0.8143435418605804</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.896416083916084</v>
+        <v>0.9845833333333334</v>
       </c>
       <c r="B38" t="n">
-        <v>1.436323669823733</v>
+        <v>0.8156331181526184</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.961875</v>
       </c>
       <c r="B39" t="n">
-        <v>1.419126223434102</v>
+        <v>0.829291969537735</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.899256993006993</v>
+        <v>0.9768749999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>1.415086410262368</v>
+        <v>0.8886780142784119</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.899256993006993</v>
+        <v>0.9622916666666667</v>
       </c>
       <c r="B41" t="n">
-        <v>1.420692216266285</v>
+        <v>0.8509507030248642</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9049388111888113</v>
+        <v>0.9870833333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>1.423942365429618</v>
+        <v>0.8131876289844513</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9897916666666666</v>
       </c>
       <c r="B43" t="n">
-        <v>1.413316401568326</v>
+        <v>0.8088245838880539</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.899256993006993</v>
+        <v>0.9872916666666666</v>
       </c>
       <c r="B44" t="n">
-        <v>1.42537674036893</v>
+        <v>0.7991549372673035</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8942307692307693</v>
+        <v>0.9897916666666666</v>
       </c>
       <c r="B45" t="n">
-        <v>1.42863147908991</v>
+        <v>0.7910251915454865</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8935751748251749</v>
+        <v>0.9872916666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>1.413672956553373</v>
+        <v>0.8573442101478577</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.899256993006993</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B47" t="n">
-        <v>1.421489975669167</v>
+        <v>0.8180807083845139</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.896416083916084</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B48" t="n">
-        <v>1.413155880841342</v>
+        <v>0.7979943305253983</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9049388111888113</v>
+        <v>0.9872916666666666</v>
       </c>
       <c r="B49" t="n">
-        <v>1.415335286747325</v>
+        <v>0.7932616025209427</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9049388111888113</v>
+        <v>0.9797916666666666</v>
       </c>
       <c r="B50" t="n">
-        <v>1.414530515670776</v>
+        <v>0.7913753986358643</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9134615384615384</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B51" t="n">
-        <v>1.413184767419642</v>
+        <v>0.8077926486730576</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9077797202797203</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>1.413251546296206</v>
+        <v>0.8112519979476929</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9077797202797203</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B53" t="n">
-        <v>1.407836345109073</v>
+        <v>0.7773549556732178</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9049388111888113</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>1.414738720113581</v>
+        <v>0.7861036062240601</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9049388111888113</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B55" t="n">
-        <v>1.412981835278598</v>
+        <v>0.7834638953208923</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9134615384615384</v>
+        <v>0.9797916666666666</v>
       </c>
       <c r="B56" t="n">
-        <v>1.407675385475159</v>
+        <v>0.7769435346126556</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9797916666666666</v>
       </c>
       <c r="B57" t="n">
-        <v>1.410301717844876</v>
+        <v>0.7772398442029953</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9219842657342657</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>1.410023943944411</v>
+        <v>0.7727871239185333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9163024475524476</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B59" t="n">
-        <v>1.409047056328167</v>
+        <v>0.7771484851837158</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9134615384615384</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B60" t="n">
-        <v>1.405129936608401</v>
+        <v>0.7690116614103317</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9191433566433567</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B61" t="n">
-        <v>1.404581833969463</v>
+        <v>0.8158113956451416</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9163024475524476</v>
+        <v>0.9820833333333333</v>
       </c>
       <c r="B62" t="n">
-        <v>1.407098862257871</v>
+        <v>0.7774243354797363</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9134615384615384</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>1.403912051157518</v>
+        <v>0.7817979454994202</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9219842657342657</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B64" t="n">
-        <v>1.423331705006686</v>
+        <v>0.7877455204725266</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9191433566433567</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B65" t="n">
-        <v>1.407122211022811</v>
+        <v>0.7724792212247849</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9191433566433567</v>
+        <v>0.9695833333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>1.410073719241402</v>
+        <v>0.775339812040329</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9163024475524476</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B67" t="n">
-        <v>1.404366401108828</v>
+        <v>0.7760203033685684</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9191433566433567</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B68" t="n">
-        <v>1.406086726622148</v>
+        <v>0.77376689016819</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9077797202797203</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B69" t="n">
-        <v>1.40403891693462</v>
+        <v>0.7764766961336136</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9077797202797203</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>1.4050987850536</v>
+        <v>0.7690041959285736</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9077797202797203</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B71" t="n">
-        <v>1.412981109185652</v>
+        <v>0.7626065164804459</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9077797202797203</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B72" t="n">
-        <v>1.403807499191978</v>
+        <v>0.7709515243768692</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9134615384615384</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B73" t="n">
-        <v>1.41064718094739</v>
+        <v>0.7797382175922394</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9106206293706294</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B74" t="n">
-        <v>1.413361235098405</v>
+        <v>0.7823878228664398</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9106206293706294</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B75" t="n">
-        <v>1.412348768927834</v>
+        <v>0.7708380222320557</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9084353146853147</v>
+        <v>0.9797916666666666</v>
       </c>
       <c r="B76" t="n">
-        <v>1.437941811301491</v>
+        <v>0.7748072892427444</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9106206293706294</v>
+        <v>0.9797916666666666</v>
       </c>
       <c r="B77" t="n">
-        <v>1.411756726828489</v>
+        <v>0.7593871504068375</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.896416083916084</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>1.412575862624428</v>
+        <v>0.7722818553447723</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9872916666666666</v>
       </c>
       <c r="B79" t="n">
-        <v>1.412884695963426</v>
+        <v>0.7539594918489456</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9049388111888113</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B80" t="n">
-        <v>1.409584863619371</v>
+        <v>0.7612560987472534</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B81" t="n">
-        <v>1.410958403890783</v>
+        <v>0.7720610648393631</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.896416083916084</v>
+        <v>0.9872916666666666</v>
       </c>
       <c r="B82" t="n">
-        <v>1.406340902501886</v>
+        <v>0.7523027360439301</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.899256993006993</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B83" t="n">
-        <v>1.417555603114041</v>
+        <v>0.7522949427366257</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9084353146853147</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B84" t="n">
-        <v>1.410151064395905</v>
+        <v>0.7510189712047577</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B85" t="n">
-        <v>1.404383989897641</v>
+        <v>0.7568623870611191</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9020979020979021</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B86" t="n">
-        <v>1.404090258208188</v>
+        <v>0.7509561628103256</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9112762237762237</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B87" t="n">
-        <v>1.40457066080787</v>
+        <v>0.7703951150178909</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9141171328671329</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B88" t="n">
-        <v>1.415821216323159</v>
+        <v>0.7525536268949509</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B89" t="n">
-        <v>1.407216765663841</v>
+        <v>0.7651672661304474</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8765297202797203</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B90" t="n">
-        <v>1.42735647613352</v>
+        <v>0.7636654376983643</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.9645833333333333</v>
       </c>
       <c r="B91" t="n">
-        <v>1.407924131913619</v>
+        <v>0.7518698573112488</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8736888111888113</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B92" t="n">
-        <v>1.446469046852805</v>
+        <v>0.7526960074901581</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8623251748251749</v>
+        <v>0.9745833333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>1.405122952027754</v>
+        <v>0.7473927289247513</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8708479020979021</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>1.402413790876215</v>
+        <v>0.7561212629079819</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8878933566433567</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B95" t="n">
-        <v>1.40877596356652</v>
+        <v>0.7422056794166565</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B96" t="n">
-        <v>1.406734027645805</v>
+        <v>0.7457565814256668</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B97" t="n">
-        <v>1.405410181392323</v>
+        <v>0.7460000365972519</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B98" t="n">
-        <v>1.399029878052798</v>
+        <v>0.7514820247888565</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.9720833333333333</v>
       </c>
       <c r="B99" t="n">
-        <v>1.405693357641047</v>
+        <v>0.7474171668291092</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.9620833333333333</v>
       </c>
       <c r="B100" t="n">
-        <v>1.399999564344233</v>
+        <v>0.7588174343109131</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8850524475524476</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>1.402181343598799</v>
+        <v>0.740973949432373</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7407481223344803</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7438032031059265</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7478859275579453</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7555728107690811</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.740654319524765</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7396286875009537</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7760218530893326</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7455397397279739</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7452513873577118</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7489326596260071</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.974375</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7481978982686996</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.971875</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7388559728860855</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9795833333333334</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7340009957551956</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7497507482767105</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7488812655210495</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.736911803483963</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7347276657819748</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7473586201667786</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7383235692977905</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7398551404476166</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7371268272399902</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7372196018695831</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7448491007089615</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7471141964197159</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7412185668945312</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7315302789211273</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7413529753684998</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7458768337965012</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.74683678150177</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.73842553794384</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7390428483486176</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7324022948741913</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7345827221870422</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7356114238500595</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7335670441389084</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.75200255215168</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7424728125333786</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7315803021192551</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7402709424495697</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.734329491853714</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7393207997083664</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7366030514240265</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7416791021823883</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.730068564414978</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7440585047006607</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7334567904472351</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7283252030611038</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7454003691673279</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.971875</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7346536666154861</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7281709462404251</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7329820841550827</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9745833333333334</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7527195364236832</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7259239256381989</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7326315641403198</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7287215143442154</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9720833333333333</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7276052236557007</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7325451076030731</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7447802126407623</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7384710609912872</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7278954982757568</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7287783473730087</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7319307029247284</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7378101944923401</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7328117042779922</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.745252326130867</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.974375</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7266438454389572</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.974375</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.726953998208046</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7277667671442032</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7405594289302826</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7292851209640503</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7236150652170181</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7291934490203857</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7275590598583221</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7269918173551559</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7250130772590637</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7310769408941269</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7321187555789948</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7296378910541534</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7295274138450623</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.964375</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7395338863134384</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7220993936061859</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7260661423206329</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7311968505382538</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7261152863502502</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7247851341962814</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7236534059047699</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7326219379901886</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7237048596143723</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7301158159971237</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7182164192199707</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7204060852527618</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7227261662483215</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7296885699033737</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7244305461645126</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7222225666046143</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7232600301504135</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.969375</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7305669635534286</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7229887992143631</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7196458429098129</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9668749999999999</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7189119756221771</v>
       </c>
     </row>
   </sheetData>
